--- a/dtpu_configurations/only_integer32/50mhz/mxu_10x10/power.xlsx
+++ b/dtpu_configurations/only_integer32/50mhz/mxu_10x10/power.xlsx
@@ -127,7 +127,7 @@
     <col min="3" max="3" width="9.84375" customWidth="true"/>
     <col min="4" max="4" width="8.75" customWidth="true"/>
     <col min="5" max="5" width="8.75" customWidth="true"/>
-    <col min="6" max="6" width="10.3125" customWidth="true"/>
+    <col min="6" max="6" width="8.75" customWidth="true"/>
     <col min="7" max="7" width="8.75" customWidth="true"/>
     <col min="8" max="8" width="10.3125" customWidth="true"/>
     <col min="9" max="9" width="8.75" customWidth="true"/>
@@ -175,22 +175,22 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.022962519899010658</v>
+        <v>0.053456805646419525</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.009680687449872494</v>
+        <v>0.017002448439598083</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.007212070282548666</v>
+        <v>0.010309909470379353</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.005244454834610224</v>
+        <v>0.005471928045153618</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>3.1104133086046204E-5</v>
+        <v>0.0038412800058722496</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>0.001389218494296074</v>
+        <v>0.0016847857041284442</v>
       </c>
       <c r="H2" t="n" s="4">
         <v>9.700000518932939E-4</v>
@@ -199,10 +199,10 @@
         <v>1.258823275566101</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.1274198591709137</v>
+        <v>0.12779024243354797</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4337397813796997</v>
+        <v>1.479357361793518</v>
       </c>
     </row>
   </sheetData>
